--- a/DataIntegrationSpecialist/DataIntegrationSpecialist.xlsx
+++ b/DataIntegrationSpecialist/DataIntegrationSpecialist.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tachibanayuuko/Documents/SFDC/Apex/DataIntegrationSpecialist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tachibanayuuko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成" sheetId="2" r:id="rId1"/>
     <sheet name="詳細内容" sheetId="3" r:id="rId2"/>
     <sheet name="Model" sheetId="1" r:id="rId3"/>
+    <sheet name="Rest受信" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="390">
   <si>
     <t>BillingCalloutService</t>
     <phoneticPr fontId="1"/>
@@ -1008,12 +1009,700 @@
     <t>その他</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Apex インテグレーションサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apex Web サービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://trailhead.salesforce.com/ja/content/learn/modules/apex_integration_services/apex_integration_webservices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP GET/DELETE methods do not support parameters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://tyoshikawa1106.hatenablog.com/entry/2015/05/21/235843</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SFDC：RestResourceアノテーションをつかってREST APIからApex処理を実行する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tyoshikawa1106のブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考資料</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL 対応付けでは大文字と小文字が区別され、ワイルドカード (*) を含めることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>global static として公開する各メソッドを定義し、HTTP メソッドと関連付けるアノテーションを追加します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のアノテーションを使用できます。それぞれのアノテーションは、各 Apex クラスで 1 回のみ使用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）</t>
+  </si>
+  <si>
+    <t>アノテーション</t>
+  </si>
+  <si>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>詳細</t>
+  </si>
+  <si>
+    <t>@HttpGet</t>
+  </si>
+  <si>
+    <t>参照</t>
+  </si>
+  <si>
+    <t>レコードを参照または取得します。</t>
+  </si>
+  <si>
+    <t>@HttpPost</t>
+  </si>
+  <si>
+    <t>作成</t>
+  </si>
+  <si>
+    <t>レコードを作成します。</t>
+  </si>
+  <si>
+    <t>@HttpDelete</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>レコードを削除します。</t>
+  </si>
+  <si>
+    <t>@HttpPut</t>
+  </si>
+  <si>
+    <t>更新/挿入</t>
+  </si>
+  <si>
+    <t>通常、既存のレコードを更新したり、レコードを作成したりするために使用します。</t>
+  </si>
+  <si>
+    <t>@HttpPatch</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>通常、既存のレコードの項目を更新するために使用します。</t>
+  </si>
+  <si>
+    <t>※　IDなどで受信ができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">global </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">static Case getCaseById() { </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestRequest request = RestContext.request;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// grab the caseId from the end of the URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String caseId = request.requestURI.substring(request.requestURI.lastIndexOf('/')+1);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Case result =  [SELECT CaseNumber,Subject,Status,Origin,Priority FROM Case WHERE Id = :caseId]; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return result;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>global static ID createCase(String subject, String status,String origin, String priority) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case thisCase = new Case(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subject=subject,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status=status,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Origin=origin,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priority=priority);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert thisCase;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return thisCase.Id;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@HttpPut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>global static ID upsertCase(String subject, String status,String origin, String priority, String id) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Id=id,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Match case by Id, if present.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Otherwise, create new case.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upsert thisCase;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@HttpPatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@HttpGet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@HttpDelete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>global static void deleteCase() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestRequest request = RestContext.request;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case thisCase = [SELECT Id FROM Case WHERE Id = :caseId];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete thisCase;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>global static ID updateCaseFields() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RestRequest request = RestContext.request;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map&lt;String, Object&gt; params = (Map&lt;String, Object&gt;)JSON.deserializeUntyped(request.requestbody.tostring());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Deserialize the JSON string into name-value pairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Iterate through each parameter field and value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for(String fieldName : params.keySet()) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Set the field and value on the Case sObject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisCase.put(fieldName, params.get(fieldName));</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update thisCase;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return thisCase.Id;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>workbench</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[utilities (ユーティリティ)] | [REST Explorer]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">URL </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/services/apexrest/Cases/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストボディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>"subject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA67F59"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>"Bigfoot Sighting!"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF5F6364"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2F9C0A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"status" : "New", </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"origin" : "Phone"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>, "priority" : "Low" }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/services/apexrest/Cases/&lt;Record ID&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StartDate : "2011-03-22",</t>
+  </si>
+  <si>
+    <t>cURL を使用したデータの取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String caseId = request.requestURI.substring(request.requestURI.lastIndexOf('/')+1);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-d "username=&lt;your_username&gt;" -d "password=&lt;your_password_and_security_token&gt;" -H 'X-PrettyPrint:1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・認証用のセッション IDを取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-d "client_id=&lt;your_consumer_key&gt;" -d "client_secret=&lt;your_consumer_secret&gt;" </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v https://login.salesforce.com/services/oauth2/token -d "grant_type=password" </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-d "client_id=3MVG9G9pzCUSkzZsZvR9aLsde005_oVdso2vMZdNHGdPGpmt24F0gVIKSqoEGH7iifFjPLUMXmyHfn13432pA" -d "client_secret=68868CB790EA0F1317C467FE877E8E94AB2B10FE9ABBDE6DBD1351BE06B8A1E9" </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-d "username=r.tachibana@curious-shark-epcnw.com" -d "password=1qazxsw2" -H 'X-PrettyPrint:1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apex REST クラスのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// Set up a test request</t>
+  </si>
+  <si>
+    <t>RestRequest request = new RestRequest();</t>
+  </si>
+  <si>
+    <t>// Set request properties</t>
+  </si>
+  <si>
+    <t>request.requestUri =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'https://yourInstance.salesforce.com/services/apexrest/Cases/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + recordId;</t>
+  </si>
+  <si>
+    <t>request.httpMethod = 'GET';</t>
+  </si>
+  <si>
+    <t>// Set other properties, such as parameters</t>
+  </si>
+  <si>
+    <t>request.params.put('status', 'Working');</t>
+  </si>
+  <si>
+    <t>// more awesome code here....</t>
+  </si>
+  <si>
+    <t>// Finally, assign the request to RestContext if used</t>
+  </si>
+  <si>
+    <t>RestContext.request = request;</t>
+  </si>
+  <si>
+    <t>CaseManagerTest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@IsTest</t>
+  </si>
+  <si>
+    <t>private class CaseManagerTest {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @isTest static void testGetCaseById() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Id recordId = createTestRecord();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Set up a test request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RestRequest request = new RestRequest();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        request.requestUri =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            'https://yourInstance.salesforce.com/services/apexrest/Cases/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            + recordId;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        request.httpMethod = 'GET';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RestContext.request = request;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Call the method to test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Case thisCase = CaseManager.getCaseById();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Verify results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assert(thisCase != null);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals('Test record', thisCase.Subject);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @isTest static void testCreateCase() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ID thisCaseId = CaseManager.createCase(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            'Ferocious chipmunk', 'New', 'Phone', 'Low');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assert(thisCaseId != null);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Case thisCase = [SELECT Id,Subject FROM Case WHERE Id=:thisCaseId];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(thisCase.Subject, 'Ferocious chipmunk');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @isTest static void testDeleteCase() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        CaseManager.deleteCase();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Verify record is deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;Case&gt; cases = [SELECT Id FROM Case WHERE Id=:recordId];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assert(cases.size() == 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @isTest static void testUpsertCase() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 1. Insert new record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ID case1Id = CaseManager.upsertCase(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                'Ferocious chipmunk', 'New', 'Phone', 'Low', null);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Verify new record was created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assert(Case1Id != null);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Case case1 = [SELECT Id,Subject FROM Case WHERE Id=:case1Id];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assert(case1 != null);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(case1.Subject, 'Ferocious chipmunk');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 2. Update status of existing record to Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ID case2Id = CaseManager.upsertCase(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                'Ferocious chipmunk', 'Working', 'Phone', 'Low', case1Id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Verify record was updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(case1Id, case2Id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Case case2 = [SELECT Id,Status FROM Case WHERE Id=:case2Id];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assert(case2 != null);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(case2.Status, 'Working');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @isTest static void testUpdateCaseFields() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        request.httpMethod = 'PATCH';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        request.addHeader('Content-Type', 'application/json');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        request.requestBody = Blob.valueOf('{"status": "Working"}');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Update status of existing record to Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ID thisCaseId = CaseManager.updateCaseFields();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Case thisCase = [SELECT Id,Status FROM Case WHERE Id=:thisCaseId];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(thisCase.Status, 'Working');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // Helper method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static Id createTestRecord() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Create test record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Case caseTest = new Case(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Subject='Test record',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Status='New',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Origin='Phone',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Priority='Medium');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        insert caseTest;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return caseTest.Id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }          </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1103,6 +1792,44 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1E1C"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2F9C0A"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF5F6364"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFA67F59"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1142,7 +1869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1575,12 +2302,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1630,24 +2473,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1663,15 +2488,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1774,6 +2590,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2225,53 +3087,53 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="47" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="46" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2279,37 +3141,37 @@
       <c r="A5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E7" s="4">
@@ -2337,12 +3199,12 @@
     </row>
     <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.4">
       <c r="B9" s="25"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="26"/>
       <c r="H9" s="27" t="s">
         <v>130</v>
@@ -2353,10 +3215,10 @@
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="29"/>
@@ -2368,7 +3230,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="33" t="s">
         <v>154</v>
       </c>
       <c r="I11" s="29"/>
@@ -2380,7 +3242,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3724,241 +4586,1360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="58"/>
-    <col min="2" max="2" width="4.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="18" style="58" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="58" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="58" customWidth="1"/>
-    <col min="9" max="16384" width="12.7109375" style="58"/>
+    <col min="1" max="1" width="12.7109375" style="49"/>
+    <col min="2" max="2" width="4.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="18" style="49" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="12.7109375" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="72" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="66" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="40" x14ac:dyDescent="0.3">
-      <c r="B3" s="61">
+      <c r="B3" s="52">
         <v>1</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="71" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="81" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="71"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="66"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="2:8" ht="40" x14ac:dyDescent="0.3">
-      <c r="B8" s="61">
+      <c r="B8" s="52">
         <v>2</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="62" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="64"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="64" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="66"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="2:8" ht="40" x14ac:dyDescent="0.3">
-      <c r="B10" s="61">
+      <c r="B10" s="52">
         <v>3</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="69"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="40" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="89" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="H13" s="90"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="81" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="71"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="64" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="66"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="64">
+      <c r="B16" s="55">
         <v>4</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="66" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="57" t="s">
         <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="95"/>
+      <c r="E12" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>296</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" t="s">
+        <v>297</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="L23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="106"/>
+      <c r="D25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="106"/>
+      <c r="D26" t="s">
+        <v>302</v>
+      </c>
+      <c r="M26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="106"/>
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="106"/>
+      <c r="D28" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" s="106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="106"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="E35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="E36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="E37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="N41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>256</v>
+      </c>
+      <c r="N42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>257</v>
+      </c>
+      <c r="N43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>258</v>
+      </c>
+      <c r="N44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>259</v>
+      </c>
+      <c r="N45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>265</v>
+      </c>
+      <c r="O46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>260</v>
+      </c>
+      <c r="M47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" s="106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D91" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
